--- a/converter/data/xlsx/18.1._BSMJENA.XLSX
+++ b/converter/data/xlsx/18.1._BSMJENA.XLSX
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="109">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -3311,6 +3311,39 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3322,39 +3355,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3412,7 +3412,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3472,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,8 +3802,8 @@
   </sheetPr>
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AH43" sqref="AH43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3837,94 +3837,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="459" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
-      <c r="L1" s="463"/>
-      <c r="M1" s="463"/>
-      <c r="N1" s="463"/>
-      <c r="O1" s="463"/>
-      <c r="P1" s="463"/>
-      <c r="Q1" s="463"/>
-      <c r="R1" s="463"/>
-      <c r="S1" s="463"/>
-      <c r="T1" s="463"/>
-      <c r="U1" s="463"/>
-      <c r="V1" s="463"/>
-      <c r="W1" s="463"/>
-      <c r="X1" s="463"/>
-      <c r="Y1" s="463"/>
-      <c r="Z1" s="463"/>
-      <c r="AA1" s="463"/>
-      <c r="AB1" s="463"/>
-      <c r="AC1" s="463"/>
-      <c r="AD1" s="463"/>
-      <c r="AE1" s="463"/>
-      <c r="AF1" s="463"/>
-      <c r="AG1" s="463"/>
-      <c r="AH1" s="463"/>
-      <c r="AI1" s="463"/>
-      <c r="AJ1" s="463"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
+      <c r="N1" s="459"/>
+      <c r="O1" s="459"/>
+      <c r="P1" s="459"/>
+      <c r="Q1" s="459"/>
+      <c r="R1" s="459"/>
+      <c r="S1" s="459"/>
+      <c r="T1" s="459"/>
+      <c r="U1" s="459"/>
+      <c r="V1" s="459"/>
+      <c r="W1" s="459"/>
+      <c r="X1" s="459"/>
+      <c r="Y1" s="459"/>
+      <c r="Z1" s="459"/>
+      <c r="AA1" s="459"/>
+      <c r="AB1" s="459"/>
+      <c r="AC1" s="459"/>
+      <c r="AD1" s="459"/>
+      <c r="AE1" s="459"/>
+      <c r="AF1" s="459"/>
+      <c r="AG1" s="459"/>
+      <c r="AH1" s="459"/>
+      <c r="AI1" s="459"/>
+      <c r="AJ1" s="459"/>
     </row>
     <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="464" t="s">
+      <c r="B2" s="460" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="465"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="465"/>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="467" t="s">
+      <c r="C2" s="461"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="461"/>
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="465"/>
-      <c r="K2" s="465"/>
-      <c r="L2" s="465"/>
-      <c r="M2" s="465"/>
-      <c r="N2" s="465"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="464" t="s">
+      <c r="J2" s="461"/>
+      <c r="K2" s="461"/>
+      <c r="L2" s="461"/>
+      <c r="M2" s="461"/>
+      <c r="N2" s="461"/>
+      <c r="O2" s="462"/>
+      <c r="P2" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="465"/>
-      <c r="R2" s="465"/>
-      <c r="S2" s="465"/>
-      <c r="T2" s="465"/>
-      <c r="U2" s="465"/>
-      <c r="V2" s="466"/>
-      <c r="W2" s="467" t="s">
+      <c r="Q2" s="461"/>
+      <c r="R2" s="461"/>
+      <c r="S2" s="461"/>
+      <c r="T2" s="461"/>
+      <c r="U2" s="461"/>
+      <c r="V2" s="462"/>
+      <c r="W2" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="465"/>
-      <c r="Y2" s="465"/>
-      <c r="Z2" s="465"/>
-      <c r="AA2" s="465"/>
-      <c r="AB2" s="465"/>
-      <c r="AC2" s="466"/>
-      <c r="AD2" s="468" t="s">
+      <c r="X2" s="461"/>
+      <c r="Y2" s="461"/>
+      <c r="Z2" s="461"/>
+      <c r="AA2" s="461"/>
+      <c r="AB2" s="461"/>
+      <c r="AC2" s="462"/>
+      <c r="AD2" s="464" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="469"/>
-      <c r="AF2" s="469"/>
-      <c r="AG2" s="469"/>
-      <c r="AH2" s="469"/>
-      <c r="AI2" s="469"/>
-      <c r="AJ2" s="470"/>
+      <c r="AE2" s="465"/>
+      <c r="AF2" s="465"/>
+      <c r="AG2" s="465"/>
+      <c r="AH2" s="465"/>
+      <c r="AI2" s="465"/>
+      <c r="AJ2" s="466"/>
     </row>
     <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -5063,7 +5063,9 @@
       <c r="AB20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AC20" s="37"/>
+      <c r="AC20" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="AD20" s="19" t="s">
         <v>71</v>
       </c>
@@ -7643,11 +7645,11 @@
       <c r="A60" s="268" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="460" t="s">
+      <c r="B60" s="456" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="461"/>
-      <c r="D60" s="462"/>
+      <c r="C60" s="457"/>
+      <c r="D60" s="458"/>
       <c r="E60" s="124"/>
       <c r="F60" s="109"/>
       <c r="G60" s="67"/>
@@ -8011,57 +8013,62 @@
       <c r="A66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="456" t="s">
+      <c r="B66" s="467" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="457"/>
-      <c r="D66" s="457"/>
-      <c r="E66" s="457"/>
-      <c r="F66" s="457"/>
-      <c r="G66" s="457"/>
-      <c r="H66" s="459"/>
-      <c r="I66" s="456" t="s">
+      <c r="C66" s="468"/>
+      <c r="D66" s="468"/>
+      <c r="E66" s="468"/>
+      <c r="F66" s="468"/>
+      <c r="G66" s="468"/>
+      <c r="H66" s="470"/>
+      <c r="I66" s="467" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="457"/>
-      <c r="K66" s="457"/>
-      <c r="L66" s="457"/>
-      <c r="M66" s="457"/>
-      <c r="N66" s="457"/>
-      <c r="O66" s="459"/>
-      <c r="P66" s="456" t="s">
+      <c r="J66" s="468"/>
+      <c r="K66" s="468"/>
+      <c r="L66" s="468"/>
+      <c r="M66" s="468"/>
+      <c r="N66" s="468"/>
+      <c r="O66" s="470"/>
+      <c r="P66" s="467" t="s">
         <v>97</v>
       </c>
-      <c r="Q66" s="457"/>
-      <c r="R66" s="457"/>
-      <c r="S66" s="457"/>
-      <c r="T66" s="457"/>
-      <c r="U66" s="457"/>
-      <c r="V66" s="459"/>
-      <c r="W66" s="456" t="s">
+      <c r="Q66" s="468"/>
+      <c r="R66" s="468"/>
+      <c r="S66" s="468"/>
+      <c r="T66" s="468"/>
+      <c r="U66" s="468"/>
+      <c r="V66" s="470"/>
+      <c r="W66" s="467" t="s">
         <v>51</v>
       </c>
-      <c r="X66" s="457"/>
-      <c r="Y66" s="457"/>
-      <c r="Z66" s="457"/>
-      <c r="AA66" s="457"/>
-      <c r="AB66" s="457"/>
-      <c r="AC66" s="459"/>
-      <c r="AD66" s="456" t="s">
+      <c r="X66" s="468"/>
+      <c r="Y66" s="468"/>
+      <c r="Z66" s="468"/>
+      <c r="AA66" s="468"/>
+      <c r="AB66" s="468"/>
+      <c r="AC66" s="470"/>
+      <c r="AD66" s="467" t="s">
         <v>78</v>
       </c>
-      <c r="AE66" s="457"/>
-      <c r="AF66" s="457"/>
-      <c r="AG66" s="457"/>
-      <c r="AH66" s="457"/>
-      <c r="AI66" s="457"/>
-      <c r="AJ66" s="458"/>
+      <c r="AE66" s="468"/>
+      <c r="AF66" s="468"/>
+      <c r="AG66" s="468"/>
+      <c r="AH66" s="468"/>
+      <c r="AI66" s="468"/>
+      <c r="AJ66" s="469"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="O70" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AD66:AJ66"/>
+    <mergeCell ref="W66:AC66"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="I66:O66"/>
+    <mergeCell ref="P66:V66"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
@@ -8069,11 +8076,6 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AD66:AJ66"/>
-    <mergeCell ref="W66:AC66"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="I66:O66"/>
-    <mergeCell ref="P66:V66"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
